--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,9 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -64,57 +58,57 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -124,55 +118,52 @@
     <t>hand</t>
   </si>
   <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -541,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,13 +611,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -644,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7467532467532467</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C5">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,49 +743,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>142</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4334763948497854</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.313953488372093</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,195 +861,123 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.78125</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L10">
+        <v>92</v>
+      </c>
+      <c r="M10">
+        <v>92</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L8">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>43</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+      <c r="K11">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L11">
+        <v>44</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3125</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1727272727272727</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>91</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>167</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1127,16 +1046,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,73 +1119,73 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L18">
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <v>61</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>33</v>
-      </c>
-      <c r="K18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L18">
-        <v>16</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>17</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6056338028169014</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5757575757575758</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5666666666666667</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5652173913043478</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L23">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5357142857142857</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4883720930232558</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4736842105263158</v>
+        <v>0.421875</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4375</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4054054054054054</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.07575757575757576</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>183</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.06698564593301436</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,73 +1509,73 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>195</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="L33">
         <v>48</v>
       </c>
-      <c r="K33">
-        <v>0.05365853658536585</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
       <c r="M33">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>388</v>
+        <v>852</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.04472843450479233</v>
+        <v>0.04411074612857813</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N34">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O34">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>299</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.03990610328638498</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,85 +1587,85 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>409</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.0304932735426009</v>
+        <v>0.02977346278317152</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N36">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="O36">
-        <v>0.1899999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1081</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.01481004507405023</v>
+        <v>0.02694300518134715</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="O37">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1530</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.01067168863779033</v>
+        <v>0.01789638932496075</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N38">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="O38">
-        <v>0.1899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1576</v>
+        <v>3128</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,115 +55,112 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -532,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6335616438356164</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C4">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2829457364341085</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C5">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,49 +740,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2486772486772487</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>47</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>142</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L6">
         <v>97</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,57 +811,33 @@
         <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1349206349206349</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>218</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K8">
         <v>0.8170731707317073</v>
@@ -890,16 +863,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.78125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7666666666666667</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7586206896551724</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7464788732394366</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,21 +962,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7452830188679245</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L13">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7058823529411765</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1041,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1067,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.675</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1093,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1145,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1176,16 +1149,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5953002610966057</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.4911764705882353</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L22">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="M22">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4831460674157304</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1275,47 +1248,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4769230769230769</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>31</v>
-      </c>
-      <c r="M24">
-        <v>31</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4745762711864407</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L25">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4435146443514644</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L26">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="M26">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1353,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4383561643835616</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.421875</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3974358974358974</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1431,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.1033653846153846</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1457,73 +1430,73 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.08851674641148326</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.058165548098434</v>
+        <v>0.07399103139013453</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.05333333333333334</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>0.98</v>
@@ -1535,137 +1508,137 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.04411074612857813</v>
+        <v>0.05701078582434515</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2037</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.04267589388696655</v>
+        <v>0.03695150115473441</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.02977346278317152</v>
+        <v>0.03609939052977028</v>
       </c>
       <c r="L36">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M36">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="N36">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2998</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.02694300518134715</v>
+        <v>0.02911679068262698</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O37">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>939</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.01789638932496075</v>
+        <v>0.01788515845622843</v>
       </c>
       <c r="L38">
         <v>57</v>
       </c>
       <c r="M38">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N38">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="O38">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3128</v>
+        <v>3130</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
@@ -55,85 +55,97 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
@@ -148,16 +160,16 @@
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -521,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.660958904109589</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2926356589147287</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9130434782608695</v>
@@ -740,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2446808510638298</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0.02</v>
@@ -758,31 +770,31 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8738738738738738</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,63 +802,87 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2147651006711409</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>123</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L7">
+        <v>68</v>
+      </c>
+      <c r="M7">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="C8">
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>117</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L7">
-        <v>28</v>
-      </c>
-      <c r="M7">
-        <v>28</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>220</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,12 +894,36 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.06989247311827956</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0.04</v>
+      </c>
+      <c r="F9">
+        <v>0.96</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>346</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.8055555555555556</v>
@@ -889,16 +949,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7535211267605634</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L11">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,21 +996,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7446808510638298</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7358490566037735</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.725</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.70625</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6862745098039216</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.675</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5953002610966057</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.550561797752809</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5230769230769231</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5118644067796611</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L25">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.488235294117647</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L26">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>174</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4615384615384616</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,15 +1412,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.410958904109589</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1378,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.3849372384937239</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L29">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>147</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.09090909090909091</v>
+        <v>0.390625</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,215 +1490,267 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>380</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.08433734939759036</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>380</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.07399103139013453</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>826</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.07111111111111111</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>836</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.05701078582434515</v>
+        <v>0.08165548098434004</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>612</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.03695150115473441</v>
+        <v>0.05873261205564142</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>834</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.03609939052977028</v>
+        <v>0.05147402901263454</v>
       </c>
       <c r="L36">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="M36">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2056</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.02911679068262698</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L37">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="N37">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3001</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.01788515845622843</v>
+        <v>0.04734411085450346</v>
       </c>
       <c r="L38">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="N38">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3130</v>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>0.03690514729685983</v>
+      </c>
+      <c r="L39">
+        <v>114</v>
+      </c>
+      <c r="M39">
+        <v>132</v>
+      </c>
+      <c r="N39">
+        <v>0.86</v>
+      </c>
+      <c r="O39">
+        <v>0.14</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.0219435736677116</v>
+      </c>
+      <c r="L40">
+        <v>70</v>
+      </c>
+      <c r="M40">
+        <v>81</v>
+      </c>
+      <c r="N40">
+        <v>0.86</v>
+      </c>
+      <c r="O40">
+        <v>0.14</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3120</v>
       </c>
     </row>
   </sheetData>
